--- a/MergeTestPack.xlsx
+++ b/MergeTestPack.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus22-PC\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042BFBD1-6C58-426B-B5AF-EA67D09EFAD7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831B56BB-45FF-4BC7-9671-3E8BFF289881}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Salesforce_TP_SFPack" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -271,7 +271,13 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table11" displayName="Table11" ref="A1:K12" totalsRowShown="0">
-  <autoFilter ref="A1:K12" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <autoFilter ref="A1:K12" xr:uid="{00000000-0009-0000-0100-000002000000}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Step 1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="TestScenarioID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="TestCaseID"/>
@@ -576,7 +582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -679,7 +685,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -750,8 +758,11 @@
       <c r="H2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F3" t="s">
         <v>18</v>
       </c>
@@ -762,7 +773,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
         <v>26</v>
       </c>
@@ -773,7 +784,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
         <v>29</v>
       </c>
@@ -784,7 +795,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
         <v>32</v>
       </c>
@@ -795,7 +806,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
         <v>35</v>
       </c>
@@ -806,7 +817,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>38</v>
       </c>
@@ -817,7 +828,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
         <v>41</v>
       </c>
@@ -828,7 +839,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
         <v>42</v>
       </c>
@@ -839,7 +850,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
         <v>45</v>
       </c>
@@ -850,7 +861,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
         <v>48</v>
       </c>
